--- a/Data/EcommerceExecutive_2025-10-16.xlsx
+++ b/Data/EcommerceExecutive_2025-10-16.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="Screen" sheetId="1" r:id="rId1"/>
     <sheet name="Interview" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
   <si>
     <t>CandidateName</t>
   </si>
@@ -145,6 +144,12 @@
     <t>Deadline Confirm</t>
   </si>
   <si>
+    <t>Sending Status</t>
+  </si>
+  <si>
+    <t>Date Sending</t>
+  </si>
+  <si>
     <t>thutnh22411@st.uel.edu.vn</t>
   </si>
   <si>
@@ -178,7 +183,7 @@
     <t>30/10/2025</t>
   </si>
   <si>
-    <t>Yes</t>
+    <t>21/10/2025</t>
   </si>
 </sst>
 </file>
@@ -800,10 +805,10 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -858,8 +863,8 @@
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1 1" defaultPivotStyle="PivotStylePreset2_Accent1 1">
-    <tableStyle name="TableStylePreset3_Accent1 1" pivot="0" count="0" xr9:uid="{C81B202C-6059-484E-B85C-27A8B2B4B6A2}"/>
-    <tableStyle name="PivotStylePreset2_Accent1 1" table="0" count="0" xr9:uid="{1C7E45FC-7356-4456-9368-18A76A61656E}"/>
+    <tableStyle name="TableStylePreset3_Accent1 1" pivot="0" count="0" xr9:uid="{5A860D42-67A5-4334-90A6-BDBB783C13B5}"/>
+    <tableStyle name="PivotStylePreset2_Accent1 1" table="0" count="0" xr9:uid="{F108B88E-747A-4E72-9559-09F17DD0298C}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1276,10 +1281,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="2"/>
@@ -1288,7 +1293,7 @@
     <col min="17" max="17" width="10.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1343,13 +1348,19 @@
       <c r="R1" t="s">
         <v>37</v>
       </c>
+      <c r="S1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T1" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>38</v>
+      <c r="B2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>10</v>
@@ -1370,38 +1381,48 @@
         <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="L2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="4">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="L2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="N2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
       </c>
       <c r="P2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T2" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>44</v>
+      <c r="B3" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>17</v>
@@ -1422,34 +1443,40 @@
         <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="L3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="4">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="L3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="N3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O3" t="s">
         <v>13</v>
       </c>
       <c r="P3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="R3" s="1" t="s">
         <v>48</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T3" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1463,64 +1490,4 @@
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70909090909091" defaultRowHeight="14.5" outlineLevelRow="2" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="1">
-        <v>45668</v>
-      </c>
-      <c r="E3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>